--- a/evaluations/zeroshot-COT/MMLU_Anatomy/gaokerena-r1.0/ans.xlsx
+++ b/evaluations/zeroshot-COT/MMLU_Anatomy/gaokerena-r1.0/ans.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA1F7F11-B159-4269-8B01-941C63201EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCDC0BD-8154-4172-A484-B3B2897578A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K15"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H36" t="s">
         <v>24</v>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -1655,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H45" t="s">
         <v>24</v>
@@ -2461,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
         <v>21</v>
@@ -2513,7 +2513,7 @@
         <v>9</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H78" t="s">
         <v>25</v>
@@ -2721,7 +2721,7 @@
         <v>11</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
         <v>24</v>
